--- a/biology/Botanique/Grevillea_argyrophylla/Grevillea_argyrophylla.xlsx
+++ b/biology/Botanique/Grevillea_argyrophylla/Grevillea_argyrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea argyrophylla est une espèce de buisson de la famille des Proteaceae endémique au sud-ouest de l'Australie-Occidentale.
 Il mesure généralement entre 1 et 6 mètres de hauteur et a son pic de floraison entre juillet et octobre (du milieu de l'hiver au milieu du printemps) dans son aire d'origine. Les fleurs sont blanches, parfois teintées de rose. Les feuilles obovales font généralement de 15 à 60 mm de long et 2,5 à 8 mm de large.
